--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>716379.1415249447</v>
+        <v>716379.1415249448</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514382</v>
+        <v>925399.3994514379</v>
       </c>
     </row>
     <row r="8">
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869526</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +981,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>85.31372784089211</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>37.18582309281555</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,31 +1130,31 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="E8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1212,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>47.73657685702946</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>3.833957768458675</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>47.02492433367365</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1379,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>71.01467844038807</v>
       </c>
       <c r="G11" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="I11" t="n">
-        <v>52.42556848774763</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -1509,7 +1509,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.83685490770591</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>40.476279133135</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1649,25 +1649,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>82.46119763909357</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,28 +1686,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856154</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1734,19 +1734,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.83685490770591</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1847,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1886,22 +1886,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>9.234466016111892</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,25 +1923,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.58054909471631</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.809496073036357</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>19.04632434133423</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>71.21159262491652</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2236,73 +2236,73 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,10 +2324,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>7.778646031951277</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2336,10 +2336,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>95.77809019286784</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2451,19 +2451,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>76.79360427493793</v>
       </c>
     </row>
     <row r="25">
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>190.3453970742848</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>56.17030901074568</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2643,19 +2643,19 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>81.36663396216807</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2700,7 +2700,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,26 +2789,26 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>241.014288877659</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>94.41048699370593</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.014288877659</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
@@ -2834,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2852,10 +2852,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>50.05769526855291</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3038,64 +3038,64 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.014288877659</v>
       </c>
-      <c r="G32" t="n">
+      <c r="X32" t="n">
         <v>241.014288877659</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>212.2853856434422</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
       <c r="Y32" t="n">
-        <v>241.014288877659</v>
+        <v>9.234466016111954</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3168,13 +3168,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>29.79900896488246</v>
+        <v>98.10479885422572</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C35" t="n">
         <v>241.014288877659</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.014288877659</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>212.2853856434422</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3342,16 +3342,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>18.40882703545739</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.79900896488246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>212.2853856434422</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.014288877659</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.014288877659</v>
       </c>
       <c r="H38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3579,25 +3579,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>45.28887413297223</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>45.27093583804374</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -3636,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>200.3360962888295</v>
       </c>
       <c r="F41" t="n">
         <v>241.014288877659</v>
@@ -3755,13 +3755,13 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>109.4031921034046</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3882,7 +3882,7 @@
         <v>241.014288877659</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>149.3895849832725</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3916,37 +3916,37 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>208.2638363878123</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,7 +3989,7 @@
         <v>241.014288877659</v>
       </c>
       <c r="G44" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4019,16 +4019,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>50.46697834767972</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>110.8320796684429</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,10 +4110,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>3.297399598374966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>241.014288877659</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4352,25 +4352,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
         <v>19.28114311021272</v>
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4416,7 +4416,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
         <v>781.4136778972854</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="4">
@@ -4483,10 +4483,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4541,10 +4541,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>588.0815197256143</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C6" t="n">
-        <v>413.6284904444873</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D6" t="n">
-        <v>264.694080783236</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>105.4566257777805</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>105.4566257777805</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>105.4566257777805</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
         <v>19.28114311021272</v>
@@ -4647,22 +4647,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4683,13 +4683,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>926.4957180431458</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y6" t="n">
-        <v>756.2968567456824</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4744,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E8" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G9" t="n">
         <v>20.03527576299844</v>
@@ -4884,16 +4884,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>20.03527576299844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="10">
@@ -4978,10 +4978,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
         <v>19.28114311021272</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>802.5825927271064</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="C11" t="n">
-        <v>802.5825927271064</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="D11" t="n">
-        <v>802.5825927271064</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="E11" t="n">
-        <v>802.5825927271064</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="F11" t="n">
-        <v>559.1338160830064</v>
+        <v>730.8505943024718</v>
       </c>
       <c r="G11" t="n">
-        <v>315.6850394389064</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H11" t="n">
-        <v>72.23626279480629</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5051,40 +5051,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="S11" t="n">
-        <v>802.5825927271064</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="T11" t="n">
-        <v>802.5825927271064</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="U11" t="n">
-        <v>802.5825927271064</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="V11" t="n">
-        <v>802.5825927271064</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="W11" t="n">
-        <v>802.5825927271064</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="X11" t="n">
-        <v>802.5825927271064</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="Y11" t="n">
-        <v>802.5825927271064</v>
+        <v>802.5825927271062</v>
       </c>
     </row>
     <row r="12">
@@ -5127,34 +5127,34 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195203</v>
       </c>
       <c r="N12" t="n">
-        <v>487.8483949674443</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>928.2922408909003</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>726.1056462496664</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>497.8820279860554</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="W12" t="n">
         <v>19.28114311021272</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
         <v>136.0777814360265</v>
@@ -5215,34 +5215,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>802.5825927271062</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C14" t="n">
-        <v>802.5825927271062</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D14" t="n">
-        <v>802.5825927271062</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E14" t="n">
-        <v>802.5825927271062</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F14" t="n">
-        <v>559.1338160830062</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G14" t="n">
-        <v>315.6850394389062</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>72.23626279480618</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729607</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5288,40 +5288,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>725.202150075937</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>874.397100218585</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271062</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>802.5825927271062</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>802.5825927271062</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U14" t="n">
-        <v>802.5825927271062</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="V14" t="n">
-        <v>802.5825927271062</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W14" t="n">
-        <v>802.5825927271062</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X14" t="n">
-        <v>802.5825927271062</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y14" t="n">
-        <v>802.5825927271062</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5364,43 +5364,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195203</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>542.8095319084027</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972852</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>964.057155510636</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T15" t="n">
-        <v>964.057155510636</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U15" t="n">
-        <v>964.057155510636</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V15" t="n">
-        <v>964.057155510636</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W15" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
         <v>136.0777814360265</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>953.9655401424089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C17" t="n">
-        <v>953.9655401424089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D17" t="n">
-        <v>710.5167634983089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E17" t="n">
-        <v>467.0679868542089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F17" t="n">
-        <v>467.0679868542089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>467.0679868542089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729607</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5525,40 +5525,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424089</v>
+        <v>954.7294120600181</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424089</v>
+        <v>954.7294120600181</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424089</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424089</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424089</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424089</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5595,49 +5595,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363992</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363992</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950733</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.0191193839557</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973067</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141906</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760293</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5710,10 +5710,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>718.7806050553884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>718.7806050553884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>718.7806050553884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>475.3318284112884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>475.3318284112884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
         <v>19.28114311021272</v>
@@ -5780,22 +5780,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>962.2293816994884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>962.2293816994884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>962.2293816994884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>962.2293816994884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>962.2293816994884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>718.7806050553884</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>487.2836868729566</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C21" t="n">
-        <v>487.2836868729566</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D21" t="n">
-        <v>487.2836868729566</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E21" t="n">
-        <v>328.0462318675011</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>181.5116738943861</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>181.5116738943861</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5832,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363992</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950733</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950733</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>712.0191193839557</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973067</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635217</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141906</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>487.2836868729566</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W21" t="n">
-        <v>487.2836868729566</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X21" t="n">
-        <v>487.2836868729566</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y21" t="n">
-        <v>487.2836868729566</v>
+        <v>521.1447485139397</v>
       </c>
     </row>
     <row r="22">
@@ -5950,10 +5950,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -5999,40 +5999,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N23" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O23" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P23" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.6274730425127</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984127</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984127</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984127</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984127</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543127</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.03527576299843</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299843</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6072,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363992</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950733</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950733</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
-        <v>712.0191193839557</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973067</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613049</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200709</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564599</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V24" t="n">
-        <v>360.2295980564599</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W24" t="n">
-        <v>116.7808214123599</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X24" t="n">
-        <v>116.7808214123599</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y24" t="n">
-        <v>116.7808214123599</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="25">
@@ -6133,13 +6133,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6269,7 +6269,7 @@
         <v>953.9655401424092</v>
       </c>
       <c r="Y26" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6279,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>76.77296163243852</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>338.3038493798764</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>191.7692914067614</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>191.7692914067614</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6336,19 +6336,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>492.3847606029253</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X27" t="n">
-        <v>284.5332603973924</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y27" t="n">
-        <v>76.77296163243852</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
         <v>19.28114311021272</v>
@@ -6418,16 +6418,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>601.5428246748834</v>
+      </c>
+      <c r="C29" t="n">
+        <v>601.5428246748834</v>
+      </c>
+      <c r="D29" t="n">
+        <v>358.0940480307834</v>
+      </c>
+      <c r="E29" t="n">
+        <v>358.0940480307834</v>
+      </c>
+      <c r="F29" t="n">
+        <v>358.0940480307834</v>
+      </c>
+      <c r="G29" t="n">
         <v>262.7299197543127</v>
-      </c>
-      <c r="C29" t="n">
-        <v>262.7299197543127</v>
-      </c>
-      <c r="D29" t="n">
-        <v>262.7299197543127</v>
-      </c>
-      <c r="E29" t="n">
-        <v>262.7299197543127</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.057155510636</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424089</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424089</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424089</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424089</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424089</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424089</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="W29" t="n">
-        <v>749.6274730425127</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984127</v>
+        <v>601.5428246748834</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984127</v>
+        <v>601.5428246748834</v>
       </c>
     </row>
     <row r="30">
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>69.84447166430658</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
         <v>19.28114311021272</v>
@@ -6549,7 +6549,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195203</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
         <v>542.8095319084027</v>
@@ -6573,19 +6573,19 @@
         <v>964.057155510636</v>
       </c>
       <c r="U30" t="n">
-        <v>964.057155510636</v>
+        <v>913.4938269565421</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788933</v>
+        <v>678.3417187247994</v>
       </c>
       <c r="W30" t="n">
-        <v>485.4562706347933</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>277.6047704292605</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>69.84447166430658</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280782</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203004</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757367</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>829.5248650203653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>829.5248650203653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984127</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984127</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984127</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984127</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543127</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6725,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W32" t="n">
-        <v>749.6274730425127</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X32" t="n">
-        <v>749.6274730425127</v>
+        <v>40.67887580791421</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984127</v>
+        <v>31.35113235729607</v>
       </c>
     </row>
     <row r="33">
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
         <v>19.28114311021272</v>
@@ -6786,16 +6786,16 @@
         <v>374.6018090363992</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252816</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084243</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973067</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973067</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q33" t="n">
         <v>964.057155510636</v>
@@ -6816,13 +6816,13 @@
         <v>500.6814290152824</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711824</v>
+        <v>500.6814290152824</v>
       </c>
       <c r="X33" t="n">
-        <v>49.38115216564955</v>
+        <v>292.8299288097496</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="34">
@@ -6892,16 +6892,16 @@
         <v>964.057155510636</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203653</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203653</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203653</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203653</v>
+        <v>964.057155510636</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.6274730425127</v>
+        <v>720.608378866536</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984127</v>
+        <v>477.159602222436</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543127</v>
+        <v>477.159602222436</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543127</v>
+        <v>477.159602222436</v>
       </c>
       <c r="F35" t="n">
         <v>262.7299197543127</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543127</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6947,40 +6947,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W35" t="n">
-        <v>749.6274730425127</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X35" t="n">
-        <v>749.6274730425127</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.6274730425127</v>
+        <v>964.057155510636</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M36" t="n">
-        <v>234.8108274061909</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950733</v>
+        <v>613.2059550252816</v>
       </c>
       <c r="O36" t="n">
-        <v>712.0191193839557</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973067</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q36" t="n">
         <v>964.057155510636</v>
       </c>
       <c r="R36" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S36" t="n">
-        <v>964.057155510636</v>
+        <v>689.4702815141906</v>
       </c>
       <c r="T36" t="n">
-        <v>964.057155510636</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470251</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152824</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711824</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564955</v>
+        <v>670.8755067309003</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>670.8755067309003</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280782</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203004</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757367</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>964.057155510636</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>467.0679868542089</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="C38" t="n">
-        <v>467.0679868542089</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="D38" t="n">
-        <v>467.0679868542089</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="E38" t="n">
-        <v>467.0679868542089</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="F38" t="n">
-        <v>467.0679868542089</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="G38" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7190,34 +7190,34 @@
         <v>874.3971002185853</v>
       </c>
       <c r="P38" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>710.5167634983089</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>817.1412885554689</v>
+        <v>156.063122924068</v>
       </c>
       <c r="C39" t="n">
-        <v>817.1412885554689</v>
+        <v>156.063122924068</v>
       </c>
       <c r="D39" t="n">
-        <v>668.2068788942177</v>
+        <v>156.063122924068</v>
       </c>
       <c r="E39" t="n">
-        <v>508.9694238887622</v>
+        <v>156.063122924068</v>
       </c>
       <c r="F39" t="n">
-        <v>362.4348659156472</v>
+        <v>156.063122924068</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>156.063122924068</v>
       </c>
       <c r="H39" t="n">
         <v>110.334904905842</v>
@@ -7254,22 +7254,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950733</v>
+        <v>613.2059550252816</v>
       </c>
       <c r="O39" t="n">
-        <v>712.0191193839557</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973067</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q39" t="n">
         <v>964.057155510636</v>
@@ -7284,19 +7284,19 @@
         <v>862.8876260635217</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635217</v>
+        <v>634.6640077999107</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635217</v>
+        <v>399.511899568168</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635217</v>
+        <v>156.063122924068</v>
       </c>
       <c r="X39" t="n">
-        <v>862.8876260635217</v>
+        <v>156.063122924068</v>
       </c>
       <c r="Y39" t="n">
-        <v>862.8876260635217</v>
+        <v>156.063122924068</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203653</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280782</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203004</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757367</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.057155510636</v>
       </c>
     </row>
     <row r="41">
@@ -7394,37 +7394,37 @@
         <v>477.159602222436</v>
       </c>
       <c r="E41" t="n">
-        <v>477.159602222436</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F41" t="n">
-        <v>233.710825578336</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="G41" t="n">
-        <v>233.710825578336</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>122.2961490211351</v>
+        <v>122.2961490211349</v>
       </c>
       <c r="L41" t="n">
-        <v>302.3720006057937</v>
+        <v>302.3720006057935</v>
       </c>
       <c r="M41" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686976</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759371</v>
+        <v>725.202150075937</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185851</v>
+        <v>874.397100218585</v>
       </c>
       <c r="P41" t="n">
         <v>964.057155510636</v>
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>194.4883050441254</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N42" t="n">
-        <v>542.8095319084027</v>
+        <v>656.0584510084243</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972852</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="P42" t="n">
-        <v>964.057155510636</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q42" t="n">
         <v>964.057155510636</v>
@@ -7521,19 +7521,19 @@
         <v>964.057155510636</v>
       </c>
       <c r="U42" t="n">
-        <v>853.5488806587122</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V42" t="n">
-        <v>853.5488806587122</v>
+        <v>964.057155510636</v>
       </c>
       <c r="W42" t="n">
-        <v>610.1001040146122</v>
+        <v>720.608378866536</v>
       </c>
       <c r="X42" t="n">
-        <v>402.2486038090793</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y42" t="n">
-        <v>194.4883050441254</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280782</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203004</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757367</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>728.6161971483368</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C44" t="n">
-        <v>728.6161971483368</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D44" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F44" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="G44" t="n">
         <v>31.35113235729607</v>
@@ -7649,49 +7649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>122.2961490211351</v>
+        <v>122.2961490211349</v>
       </c>
       <c r="L44" t="n">
-        <v>302.3720006057937</v>
+        <v>302.3720006057935</v>
       </c>
       <c r="M44" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686976</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>725.202150075937</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>874.397100218585</v>
       </c>
       <c r="P44" t="n">
         <v>964.057155510636</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424089</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424089</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424089</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="T44" t="n">
-        <v>728.6161971483368</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U44" t="n">
-        <v>728.6161971483368</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V44" t="n">
-        <v>728.6161971483368</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W44" t="n">
-        <v>728.6161971483368</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X44" t="n">
-        <v>728.6161971483368</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y44" t="n">
-        <v>728.6161971483368</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>279.9389693285341</v>
+        <v>417.2522547781878</v>
       </c>
       <c r="C45" t="n">
-        <v>279.9389693285341</v>
+        <v>417.2522547781878</v>
       </c>
       <c r="D45" t="n">
-        <v>279.9389693285341</v>
+        <v>417.2522547781878</v>
       </c>
       <c r="E45" t="n">
-        <v>279.9389693285341</v>
+        <v>417.2522547781878</v>
       </c>
       <c r="F45" t="n">
-        <v>133.4044113554191</v>
+        <v>270.7176968050727</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>131.9868713876882</v>
       </c>
       <c r="H45" t="n">
         <v>20.03527576299843</v>
@@ -7731,13 +7731,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990951</v>
       </c>
       <c r="N45" t="n">
-        <v>712.0191193839557</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="O45" t="n">
         <v>712.0191193839557</v>
@@ -7749,28 +7749,28 @@
         <v>964.057155510636</v>
       </c>
       <c r="R45" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="S45" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635217</v>
       </c>
       <c r="T45" t="n">
-        <v>761.870560869402</v>
+        <v>660.7010314222878</v>
       </c>
       <c r="U45" t="n">
-        <v>758.5398542043768</v>
+        <v>660.7010314222878</v>
       </c>
       <c r="V45" t="n">
-        <v>523.3877459726341</v>
+        <v>660.7010314222878</v>
       </c>
       <c r="W45" t="n">
-        <v>279.9389693285341</v>
+        <v>417.2522547781878</v>
       </c>
       <c r="X45" t="n">
-        <v>279.9389693285341</v>
+        <v>417.2522547781878</v>
       </c>
       <c r="Y45" t="n">
-        <v>279.9389693285341</v>
+        <v>417.2522547781878</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280782</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203004</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757367</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>964.057155510636</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>829.5248650203653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>829.5248650203653</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203653</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8775,19 +8775,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623804</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9012,13 +9012,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>197.6503338623804</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133071</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,19 +9480,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519922</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9723,19 +9723,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519922</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221034</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,10 +10197,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>197.6503338623804</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236954</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221034</v>
@@ -10434,19 +10434,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996773</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>174.6270615612552</v>
+        <v>301.2485028631348</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221034</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>359.8407857361377</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221034</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,16 +10911,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>357.7767872515267</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221034</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996773</v>
       </c>
       <c r="N42" t="n">
-        <v>186.8580120236954</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221034</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11379,16 +11379,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996773</v>
       </c>
       <c r="N45" t="n">
-        <v>357.7767872515267</v>
+        <v>349.0484638974527</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22592,28 +22592,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>257.4021743712353</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22626,25 +22626,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85.5626750829564</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,19 +22671,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.622687458563</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22784,10 +22784,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22826,19 +22826,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22869,7 +22869,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22878,7 +22878,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>26.92171639560435</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22923,10 +22923,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>214.5091600681041</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,10 +22984,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,31 +23018,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23100,19 +23100,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>124.9719221312863</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23145,25 +23145,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>247.8610253924609</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>130.2684670434958</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23267,19 +23267,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>335.8613673013234</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>98.46051323810815</v>
       </c>
       <c r="I11" t="n">
-        <v>158.0503210826583</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23382,10 +23382,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23397,7 +23397,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23434,7 +23434,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23455,7 +23455,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.2884486374761</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810815</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>169.9996104372709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23537,25 +23537,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>168.8844552687429</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23574,28 +23574,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270035</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23622,19 +23622,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,7 +23671,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23692,7 +23692,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23735,10 +23735,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.668752743024</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946028</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23747,10 +23747,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810815</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>20.13049249612121</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23774,22 +23774,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.7562331984329127</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,25 +23811,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,22 +23856,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662033</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946028</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.2884486374761</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24020,13 +24020,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>221.286353491095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24045,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>147.4868593085331</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>41.02385161157994</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24093,19 +24093,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24114,7 +24114,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858216</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,10 +24212,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>374.1517240403105</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24224,10 +24224,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24257,10 +24257,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>10.3313640301775</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24272,7 +24272,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>70.7550934569995</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24339,19 +24339,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326061</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>128.8890915023664</v>
       </c>
     </row>
     <row r="25">
@@ -24373,7 +24373,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24382,7 +24382,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
@@ -24440,22 +24440,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>192.3884445891958</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24522,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>116.5381899775701</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24531,19 +24531,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>30.8688102743284</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24576,7 +24576,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24588,7 +24588,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24658,7 +24658,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,25 +24677,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858216</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>320.8922505214291</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810815</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24722,13 +24722,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24740,10 +24740,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>122.6508037197628</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24813,7 +24813,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24892,7 +24892,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24926,10 +24926,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.2884486374761</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24965,10 +24965,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24977,13 +24977,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>136.9555830739708</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783946</v>
+        <v>377.0034726399416</v>
       </c>
     </row>
     <row r="33">
@@ -24996,7 +24996,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25056,13 +25056,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326061</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>175.8836868124219</v>
+        <v>107.5778969230786</v>
       </c>
     </row>
     <row r="34">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25132,7 +25132,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,25 +25151,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C35" t="n">
         <v>124.2586028933486</v>
       </c>
       <c r="D35" t="n">
-        <v>113.668752743024</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982694</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810815</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25214,7 +25214,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>136.9555830739708</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25230,16 +25230,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>181.7559016593642</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326061</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>175.8836868124219</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25369,7 +25369,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858216</v>
+        <v>170.4484560200383</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25400,13 +25400,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
         <v>174.2884486374761</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25467,25 +25467,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>121.2443095168951</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>66.96450839845272</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25524,13 +25524,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309074</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25634,7 +25634,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>181.5942737834323</v>
       </c>
       <c r="F41" t="n">
         <v>165.8617568640524</v>
@@ -25643,13 +25643,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>127.1894164723251</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,7 +25761,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>116.5381899775702</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25770,7 +25770,7 @@
         <v>10.68069428326061</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>56.383400220205</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25834,7 +25834,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25868,7 +25868,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>146.4192052328707</v>
+        <v>113.668752743024</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25877,7 +25877,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>174.2884486374761</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,16 +25907,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>172.6288712164516</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25925,7 +25925,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25956,10 +25956,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1.40336456805359</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -25998,10 +25998,10 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>222.6439824825999</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326061</v>
@@ -26077,13 +26077,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611642</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>456941.8494611642</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>456941.8494611644</v>
+        <v>456941.8494611643</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>456941.8494611643</v>
+        <v>456941.8494611644</v>
       </c>
     </row>
     <row r="13">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910625</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="C4" t="n">
         <v>179.5324977039669</v>
@@ -26427,7 +26427,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
         <v>179.5324977039669</v>
@@ -26436,10 +26436,10 @@
         <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="J4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="K4" t="n">
         <v>179.5324977039669</v>
@@ -26451,7 +26451,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
         <v>179.5324977039669</v>
@@ -26519,10 +26519,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4609.728394514081</v>
+        <v>-4609.728394514052</v>
       </c>
       <c r="C6" t="n">
-        <v>76159.70313703362</v>
+        <v>76159.70313703368</v>
       </c>
       <c r="D6" t="n">
         <v>76159.70313703365</v>
@@ -26543,19 +26543,19 @@
         <v>109787.3031370336</v>
       </c>
       <c r="J6" t="n">
-        <v>46727.36053792742</v>
+        <v>46727.36053792743</v>
       </c>
       <c r="K6" t="n">
-        <v>109787.3031370336</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="L6" t="n">
-        <v>109787.3031370336</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="M6" t="n">
         <v>109787.3031370337</v>
       </c>
       <c r="N6" t="n">
-        <v>109787.3031370336</v>
+        <v>109787.3031370337</v>
       </c>
       <c r="O6" t="n">
         <v>109787.3031370336</v>
@@ -26796,19 +26796,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
+        <v>241.014288877659</v>
+      </c>
+      <c r="F4" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F4" t="n">
-        <v>241.014288877659</v>
-      </c>
       <c r="G4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776591</v>
@@ -34705,7 +34705,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34784,10 +34784,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35495,19 +35495,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>55.51629994036207</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O12" t="n">
-        <v>226.4350751681936</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153931</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35732,13 +35732,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>55.51629994036207</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.014288877659</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O15" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35893,7 +35893,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>99.81127712997385</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O18" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997385</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36443,19 +36443,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997385</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O24" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>241.014288877659</v>
+      </c>
+      <c r="N30" t="n">
         <v>55.51629994036207</v>
-      </c>
-      <c r="N30" t="n">
-        <v>241.014288877659</v>
       </c>
       <c r="O30" t="n">
         <v>241.014288877659</v>
@@ -37154,19 +37154,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>43.28534947792193</v>
+        <v>169.9067907798015</v>
       </c>
       <c r="O33" t="n">
         <v>241.014288877659</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>217.7067518141194</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>241.014288877659</v>
       </c>
       <c r="O36" t="n">
-        <v>241.014288877659</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
-        <v>90.56571241621288</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37631,16 +37631,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>226.4350751681934</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O39" t="n">
-        <v>241.014288877659</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>104.055561526184</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384785</v>
       </c>
       <c r="M42" t="n">
         <v>241.014288877659</v>
       </c>
       <c r="N42" t="n">
-        <v>55.51629994036207</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O42" t="n">
         <v>241.014288877659</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>104.055561526184</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38032,7 +38032,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.56571241621288</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,16 +38099,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>241.014288877659</v>
       </c>
       <c r="N45" t="n">
-        <v>226.4350751681934</v>
+        <v>217.7067518141194</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
